--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H2">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I2">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J2">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>256.0492897510108</v>
+        <v>293.1644937955305</v>
       </c>
       <c r="R2">
-        <v>256.0492897510108</v>
+        <v>1172.657975182122</v>
       </c>
       <c r="S2">
-        <v>0.1187588852918847</v>
+        <v>0.1209640131746895</v>
       </c>
       <c r="T2">
-        <v>0.1187588852918847</v>
+        <v>0.07199037588323609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H3">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I3">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J3">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>65.50379843537024</v>
+        <v>70.09391733890699</v>
       </c>
       <c r="R3">
-        <v>65.50379843537024</v>
+        <v>420.563504033442</v>
       </c>
       <c r="S3">
-        <v>0.03038148667443496</v>
+        <v>0.02892178868823988</v>
       </c>
       <c r="T3">
-        <v>0.03038148667443496</v>
+        <v>0.02581871728918759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H4">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I4">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J4">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>12.77085658390253</v>
+        <v>13.218274170684</v>
       </c>
       <c r="R4">
-        <v>12.77085658390253</v>
+        <v>79.309645024104</v>
       </c>
       <c r="S4">
-        <v>0.005923284120809804</v>
+        <v>0.005454055742659156</v>
       </c>
       <c r="T4">
-        <v>0.005923284120809804</v>
+        <v>0.004868880165646374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H5">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I5">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J5">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>18.14804194152932</v>
+        <v>18.85533331902</v>
       </c>
       <c r="R5">
-        <v>18.14804194152932</v>
+        <v>113.13199991412</v>
       </c>
       <c r="S5">
-        <v>0.008417290410382338</v>
+        <v>0.007779989856499705</v>
       </c>
       <c r="T5">
-        <v>0.008417290410382338</v>
+        <v>0.006945260570947678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H6">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I6">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J6">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>192.0463229318379</v>
+        <v>211.3516574211461</v>
       </c>
       <c r="R6">
-        <v>192.0463229318379</v>
+        <v>1268.109944526876</v>
       </c>
       <c r="S6">
-        <v>0.08907350322263623</v>
+        <v>0.08720682488451384</v>
       </c>
       <c r="T6">
-        <v>0.08907350322263623</v>
+        <v>0.07785024576631668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H7">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I7">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J7">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>31.3589139428667</v>
+        <v>32.30867860225501</v>
       </c>
       <c r="R7">
-        <v>31.3589139428667</v>
+        <v>129.23471440902</v>
       </c>
       <c r="S7">
-        <v>0.01454465922338801</v>
+        <v>0.01333103942261771</v>
       </c>
       <c r="T7">
-        <v>0.01454465922338801</v>
+        <v>0.007933818610684923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H8">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I8">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J8">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>18.52430914055571</v>
+        <v>22.97622621631134</v>
       </c>
       <c r="R8">
-        <v>18.52430914055571</v>
+        <v>137.857357297868</v>
       </c>
       <c r="S8">
-        <v>0.008591807876030172</v>
+        <v>0.009480331314176709</v>
       </c>
       <c r="T8">
-        <v>0.008591807876030172</v>
+        <v>0.008463169295891044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H9">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I9">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J9">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>4.738980581736441</v>
+        <v>5.493481425105333</v>
       </c>
       <c r="R9">
-        <v>4.738980581736441</v>
+        <v>49.441332825948</v>
       </c>
       <c r="S9">
-        <v>0.002197998876912273</v>
+        <v>0.002266691818228243</v>
       </c>
       <c r="T9">
-        <v>0.002197998876912273</v>
+        <v>0.003035241485272286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H10">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I10">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J10">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>0.9239287309875376</v>
+        <v>1.035957846064</v>
       </c>
       <c r="R10">
-        <v>0.9239287309875376</v>
+        <v>9.323620614576001</v>
       </c>
       <c r="S10">
-        <v>0.0004285297814648298</v>
+        <v>0.0004274515543042177</v>
       </c>
       <c r="T10">
-        <v>0.0004285297814648298</v>
+        <v>0.0005723842474458686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H11">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I11">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J11">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>1.312950094677358</v>
+        <v>1.477751954586667</v>
       </c>
       <c r="R11">
-        <v>1.312950094677358</v>
+        <v>13.29976759128</v>
       </c>
       <c r="S11">
-        <v>0.0006089627893105372</v>
+        <v>0.0006097423483630268</v>
       </c>
       <c r="T11">
-        <v>0.0006089627893105372</v>
+        <v>0.0008164829714369437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H12">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I12">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J12">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>13.89390870310865</v>
+        <v>16.56429613706045</v>
       </c>
       <c r="R12">
-        <v>13.89390870310865</v>
+        <v>149.078665233544</v>
       </c>
       <c r="S12">
-        <v>0.006444169837506394</v>
+        <v>0.006834673975049384</v>
       </c>
       <c r="T12">
-        <v>0.006444169837506394</v>
+        <v>0.009152054028939823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H13">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I13">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J13">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>2.268712468426022</v>
+        <v>2.532133065313334</v>
       </c>
       <c r="R13">
-        <v>2.268712468426022</v>
+        <v>15.19279839188</v>
       </c>
       <c r="S13">
-        <v>0.001052257415203437</v>
+        <v>0.001044795614595327</v>
       </c>
       <c r="T13">
-        <v>0.001052257415203437</v>
+        <v>0.0009326975896614709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H14">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I14">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J14">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>222.0835234200694</v>
+        <v>252.6772055547047</v>
       </c>
       <c r="R14">
-        <v>222.0835234200694</v>
+        <v>1516.063233328228</v>
       </c>
       <c r="S14">
-        <v>0.1030051350999988</v>
+        <v>0.1042583582546005</v>
       </c>
       <c r="T14">
-        <v>0.1030051350999988</v>
+        <v>0.09307228905606758</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H15">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I15">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J15">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>56.814507738222</v>
+        <v>60.41364331087866</v>
       </c>
       <c r="R15">
-        <v>56.814507738222</v>
+        <v>543.722789797908</v>
       </c>
       <c r="S15">
-        <v>0.02635128421547111</v>
+        <v>0.02492756421753122</v>
       </c>
       <c r="T15">
-        <v>0.02635128421547111</v>
+        <v>0.03337956065813138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H16">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I16">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J16">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>11.07676115799211</v>
+        <v>11.392773171344</v>
       </c>
       <c r="R16">
-        <v>11.07676115799211</v>
+        <v>102.534958542096</v>
       </c>
       <c r="S16">
-        <v>0.005137541326698392</v>
+        <v>0.004700826986762868</v>
       </c>
       <c r="T16">
-        <v>0.005137541326698392</v>
+        <v>0.006294700042841662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H17">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I17">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J17">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>15.74064548848887</v>
+        <v>16.25132999965334</v>
       </c>
       <c r="R17">
-        <v>15.74064548848887</v>
+        <v>146.26196999688</v>
       </c>
       <c r="S17">
-        <v>0.007300709616517465</v>
+        <v>0.006705539510372534</v>
       </c>
       <c r="T17">
-        <v>0.007300709616517465</v>
+        <v>0.008979134939889607</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H18">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I18">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J18">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>166.5707571305718</v>
+        <v>182.1630767598249</v>
       </c>
       <c r="R18">
-        <v>166.5707571305718</v>
+        <v>1639.467690838424</v>
       </c>
       <c r="S18">
-        <v>0.07725761496268264</v>
+        <v>0.07516318409447639</v>
       </c>
       <c r="T18">
-        <v>0.07725761496268264</v>
+        <v>0.1006481837072306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H19">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I19">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J19">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>27.19905259581405</v>
+        <v>27.84670994324667</v>
       </c>
       <c r="R19">
-        <v>27.19905259581405</v>
+        <v>167.08025965948</v>
       </c>
       <c r="S19">
-        <v>0.01261526314099634</v>
+        <v>0.01148996505284844</v>
       </c>
       <c r="T19">
-        <v>0.01261526314099634</v>
+        <v>0.01025718576952209</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H20">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I20">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J20">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>209.5506114414455</v>
+        <v>242.022050376457</v>
       </c>
       <c r="R20">
-        <v>209.5506114414455</v>
+        <v>1452.132302258742</v>
       </c>
       <c r="S20">
-        <v>0.09719221268381076</v>
+        <v>0.09986188337910329</v>
       </c>
       <c r="T20">
-        <v>0.09719221268381076</v>
+        <v>0.08914751997960882</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H21">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I21">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J21">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>53.60827607534829</v>
+        <v>57.86605797191799</v>
       </c>
       <c r="R21">
-        <v>53.60827607534829</v>
+        <v>520.7945217472619</v>
       </c>
       <c r="S21">
-        <v>0.02486419359069064</v>
+        <v>0.02387639276591397</v>
       </c>
       <c r="T21">
-        <v>0.02486419359069064</v>
+        <v>0.03197197663086098</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H22">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I22">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J22">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>10.4516626794401</v>
+        <v>10.912350864216</v>
       </c>
       <c r="R22">
-        <v>10.4516626794401</v>
+        <v>98.211157777944</v>
       </c>
       <c r="S22">
-        <v>0.004847612779805415</v>
+        <v>0.004502597625708735</v>
       </c>
       <c r="T22">
-        <v>0.004847612779805415</v>
+        <v>0.006029258585193124</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H23">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I23">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J23">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>14.85234850294074</v>
+        <v>15.56602701548</v>
       </c>
       <c r="R23">
-        <v>14.85234850294074</v>
+        <v>140.09424313932</v>
       </c>
       <c r="S23">
-        <v>0.006888706287336507</v>
+        <v>0.006422773346800166</v>
       </c>
       <c r="T23">
-        <v>0.006888706287336507</v>
+        <v>0.008600493439794989</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H24">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I24">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J24">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>157.1706152146788</v>
+        <v>174.4814346965373</v>
       </c>
       <c r="R24">
-        <v>157.1706152146788</v>
+        <v>1570.332912268836</v>
       </c>
       <c r="S24">
-        <v>0.07289771075594755</v>
+        <v>0.07199362478080711</v>
       </c>
       <c r="T24">
-        <v>0.07289771075594755</v>
+        <v>0.09640394642648725</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H25">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I25">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J25">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>25.66411958126295</v>
+        <v>26.67244091887</v>
       </c>
       <c r="R25">
-        <v>25.66411958126295</v>
+        <v>160.03464551322</v>
       </c>
       <c r="S25">
-        <v>0.0119033418777776</v>
+        <v>0.0110054442573854</v>
       </c>
       <c r="T25">
-        <v>0.0119033418777776</v>
+        <v>0.009824650092920629</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H26">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I26">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J26">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>218.5365149048972</v>
+        <v>259.0461378339943</v>
       </c>
       <c r="R26">
-        <v>218.5365149048972</v>
+        <v>1554.276827003966</v>
       </c>
       <c r="S26">
-        <v>0.1013599878793512</v>
+        <v>0.1068862740644804</v>
       </c>
       <c r="T26">
-        <v>0.1013599878793512</v>
+        <v>0.09541825099107969</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H27">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I27">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J27">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>55.90709443880488</v>
+        <v>61.93641780154731</v>
       </c>
       <c r="R27">
-        <v>55.90709443880488</v>
+        <v>557.4277602139259</v>
       </c>
       <c r="S27">
-        <v>0.02593041449916532</v>
+        <v>0.02555588353126025</v>
       </c>
       <c r="T27">
-        <v>0.02593041449916532</v>
+        <v>0.03422091934292993</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H28">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I28">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J28">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>10.89984859130156</v>
+        <v>11.679937186168</v>
       </c>
       <c r="R28">
-        <v>10.89984859130156</v>
+        <v>105.119434675512</v>
       </c>
       <c r="S28">
-        <v>0.005055487050216209</v>
+        <v>0.004819315113420846</v>
       </c>
       <c r="T28">
-        <v>0.005055487050216209</v>
+        <v>0.006453363022366424</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H29">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I29">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J29">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>15.48924366127465</v>
+        <v>16.66095784870667</v>
       </c>
       <c r="R29">
-        <v>15.48924366127465</v>
+        <v>149.94862063836</v>
       </c>
       <c r="S29">
-        <v>0.007184106282880666</v>
+        <v>0.006874558029252811</v>
       </c>
       <c r="T29">
-        <v>0.007184106282880666</v>
+        <v>0.00920546126098856</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H30">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I30">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J30">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>163.9103711423539</v>
+        <v>186.7546436846031</v>
       </c>
       <c r="R30">
-        <v>163.9103711423539</v>
+        <v>1680.791793161428</v>
       </c>
       <c r="S30">
-        <v>0.07602369443623193</v>
+        <v>0.07705773262861339</v>
       </c>
       <c r="T30">
-        <v>0.07602369443623193</v>
+        <v>0.103185102162766</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H31">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I31">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J31">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>26.76464274101594</v>
+        <v>28.54860867384333</v>
       </c>
       <c r="R31">
-        <v>26.76464274101594</v>
+        <v>171.29165204306</v>
       </c>
       <c r="S31">
-        <v>0.0124137783793483</v>
+        <v>0.01177957886724988</v>
       </c>
       <c r="T31">
-        <v>0.0124137783793483</v>
+        <v>0.01051572639014818</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H32">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I32">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J32">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>33.88601695304926</v>
+        <v>42.0271006262965</v>
       </c>
       <c r="R32">
-        <v>33.88601695304926</v>
+        <v>168.108402505186</v>
       </c>
       <c r="S32">
-        <v>0.01571676142604942</v>
+        <v>0.01734100432161828</v>
       </c>
       <c r="T32">
-        <v>0.01571676142604942</v>
+        <v>0.01032030425034984</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H33">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I33">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J33">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>8.668888816010922</v>
+        <v>10.048434171391</v>
       </c>
       <c r="R33">
-        <v>8.668888816010922</v>
+        <v>60.290605028346</v>
       </c>
       <c r="S33">
-        <v>0.004020739809549419</v>
+        <v>0.004146132799904816</v>
       </c>
       <c r="T33">
-        <v>0.004020739809549419</v>
+        <v>0.003701286658238321</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H34">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I34">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J34">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>1.690117801646328</v>
+        <v>1.894928446092</v>
       </c>
       <c r="R34">
-        <v>1.690117801646328</v>
+        <v>11.369570676552</v>
       </c>
       <c r="S34">
-        <v>0.000783897921883207</v>
+        <v>0.0007818755489470574</v>
       </c>
       <c r="T34">
-        <v>0.000783897921883207</v>
+        <v>0.0006979866968532565</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H35">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I35">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J35">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>2.401744045036484</v>
+        <v>2.703038763260001</v>
       </c>
       <c r="R35">
-        <v>2.401744045036484</v>
+        <v>16.21823257956</v>
       </c>
       <c r="S35">
-        <v>0.001113959135845753</v>
+        <v>0.001115313837421004</v>
       </c>
       <c r="T35">
-        <v>0.001113959135845753</v>
+        <v>0.0009956497838877021</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H36">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I36">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J36">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>25.41575085393628</v>
+        <v>30.29868064503134</v>
       </c>
       <c r="R36">
-        <v>25.41575085393628</v>
+        <v>181.792083870188</v>
       </c>
       <c r="S36">
-        <v>0.01178814533406775</v>
+        <v>0.01250168448870037</v>
       </c>
       <c r="T36">
-        <v>0.01178814533406775</v>
+        <v>0.01116035598391685</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H37">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I37">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J37">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>4.150094267125374</v>
+        <v>4.631666233315</v>
       </c>
       <c r="R37">
-        <v>4.150094267125374</v>
+        <v>18.52666493326</v>
       </c>
       <c r="S37">
-        <v>0.001924865987714011</v>
+        <v>0.001911094102883553</v>
       </c>
       <c r="T37">
-        <v>0.001924865987714011</v>
+        <v>0.001137366223259614</v>
       </c>
     </row>
   </sheetData>
